--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -191,7 +191,7 @@
     <t>I can use the system easily</t>
   </si>
   <si>
-    <t>I want to be able to add a another account holder online</t>
+    <t>I want to be able to add another account holder online</t>
   </si>
   <si>
     <t>we can both manage the account</t>
@@ -833,7 +833,7 @@
     <t>The error rate of users submitting their payment details at the checkout page mustn’t exceed 10%.</t>
   </si>
   <si>
-    <t>3,7,10,25</t>
+    <t>3,7,13,25</t>
   </si>
   <si>
     <t>Security</t>
@@ -845,7 +845,7 @@
     <t>100% of payments and transactions done by all clients are secured and not subjected at any moment to be stolen or hacked.</t>
   </si>
   <si>
-    <t>38, 39, 47, 61</t>
+    <t>38, 39, 47, 62</t>
   </si>
   <si>
     <t>Visibilty</t>
@@ -6809,7 +6809,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="24">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
@@ -6889,7 +6889,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="24">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
